--- a/Backlog/Backlog.xlsx
+++ b/Backlog/Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G406\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G406\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5233887-1816-46F9-8A0F-FB8009E8C99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83A43F0-E788-4464-81A2-2C1A3C41E97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
   <si>
     <t>t</t>
   </si>
@@ -151,9 +151,6 @@
     <t>REQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear aplicativo para que pueda ingresar </t>
-  </si>
-  <si>
     <t>Crear para que realice operaciones básicas</t>
   </si>
   <si>
@@ -173,13 +170,79 @@
   </si>
   <si>
     <t>Observar el valor final a cobrar de los productos vendidos y agilizar las ventas</t>
+  </si>
+  <si>
+    <t>REQ002-1</t>
+  </si>
+  <si>
+    <t>REQ002-2</t>
+  </si>
+  <si>
+    <t>REQ002-3</t>
+  </si>
+  <si>
+    <t>Tener el listado de productos disponibles</t>
+  </si>
+  <si>
+    <t>Observar lo que hay y lo que hace falta</t>
+  </si>
+  <si>
+    <t>Anthony Vilaña</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>REQ003-1</t>
+  </si>
+  <si>
+    <t>REQ003-2</t>
+  </si>
+  <si>
+    <t>REQ003-3</t>
+  </si>
+  <si>
+    <t>Jeicol Rodríguez</t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>Observar una listada sobre los gastos</t>
+  </si>
+  <si>
+    <t>Tener una lista de gastos y analizar las inversiones necesarias</t>
+  </si>
+  <si>
+    <t>Crear una opcion que permita ingresar productos</t>
+  </si>
+  <si>
+    <t>Permitir que se guarde el listado</t>
+  </si>
+  <si>
+    <t>Crear opcion que permita actualizar el listado</t>
+  </si>
+  <si>
+    <t>Visualización de gastos</t>
+  </si>
+  <si>
+    <t>Crear opción para observar un lista acerca de los gastos</t>
+  </si>
+  <si>
+    <t>Crear opción que permita ver lo más vendido para invertir</t>
+  </si>
+  <si>
+    <t>Crear opción que ayude a organizar los gastos e inversiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear aplicativo para que el ususario pueda ingresar </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -245,8 +308,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +346,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,7 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -356,7 +445,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -380,8 +468,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,6 +475,31 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:I993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -688,81 +799,81 @@
       <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1768,8 +1879,8 @@
   </sheetPr>
   <dimension ref="A1:J861"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1777,7 +1888,7 @@
     <col min="1" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="79.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
     <col min="6" max="6" width="56.140625" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="26" width="12.42578125" customWidth="1"/>
@@ -1828,25 +1939,25 @@
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1870,14 +1981,14 @@
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="14" t="s">
-        <v>43</v>
+      <c r="C6" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="5">
@@ -1888,14 +1999,14 @@
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="14" t="s">
-        <v>43</v>
+      <c r="C7" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="5">
@@ -1906,14 +2017,14 @@
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="14" t="s">
-        <v>43</v>
+      <c r="C8" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3">
@@ -1921,8 +2032,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="28"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="14"/>
       <c r="H9" s="7" t="s">
         <v>21</v>
       </c>
@@ -1932,6 +2043,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1957,28 +2069,232 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="32"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="24"/>
+      <c r="H17" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17">
+        <f>SUM(I14:I16)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25">
+        <f>SUM(I22:I24)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2809,10 +3125,25 @@
     <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="18">
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
